--- a/src/progly/cloudlab_split_objs_experiment/google-spreadsheet-split-object-experiments.xlsx
+++ b/src/progly/cloudlab_split_objs_experiment/google-spreadsheet-split-object-experiments.xlsx
@@ -153,33 +153,28 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,7 +194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
               <a:t>4 OSDs: Average time to split 10,000 4MB objects of varying row width</a:t>
@@ -232,11 +227,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="813204668"/>
-        <c:axId val="1816486841"/>
+        <c:axId val="27918598"/>
+        <c:axId val="1180435718"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="813204668"/>
+        <c:axId val="27918598"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -249,7 +244,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Row Size</a:t>
@@ -264,14 +259,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816486841"/>
+        <c:crossAx val="1180435718"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1816486841"/>
+        <c:axId val="1180435718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,7 +297,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr b="0" sz="1200"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Seconds</a:t>
@@ -324,13 +319,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr b="0" sz="1200"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="813204668"/>
+        <c:crossAx val="27918598"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -345,10 +341,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>4 OSDs: Average time to split 10000 4MB objects with varying replication (client-side)</a:t>
+              <a:t>4 OSDs: Average time to split 10000 4MB objects (40GB) varying replication (client-side)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -431,11 +427,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1312242087"/>
-        <c:axId val="175667954"/>
+        <c:axId val="1185687820"/>
+        <c:axId val="595649988"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1312242087"/>
+        <c:axId val="1185687820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +444,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Number of Threads</a:t>
@@ -463,14 +459,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175667954"/>
+        <c:crossAx val="595649988"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175667954"/>
+        <c:axId val="595649988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +497,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr b="0" sz="1200"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Seconds</a:t>
@@ -523,17 +519,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr b="0" sz="1200"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1312242087"/>
+        <c:crossAx val="1185687820"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -548,10 +545,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>4 OSDs: Average time to split 10000 objects of varying size (client-side)</a:t>
+              <a:t>4 OSDs: Average time to split 10000 objects (20/40/80/160GB) of varying size (client-side)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -658,11 +655,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="813734246"/>
-        <c:axId val="1928760427"/>
+        <c:axId val="1547674680"/>
+        <c:axId val="1124923195"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="813734246"/>
+        <c:axId val="1547674680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +672,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Number of threads</a:t>
@@ -690,14 +687,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1928760427"/>
+        <c:crossAx val="1124923195"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1928760427"/>
+        <c:axId val="1124923195"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +725,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr b="0" sz="1200"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Seconds</a:t>
@@ -750,17 +747,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr b="0" sz="1200"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="813734246"/>
+        <c:crossAx val="1547674680"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -775,7 +773,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
               <a:t>4 OSDs: Average time to split 40GB data with varying number of objects (client-side)</a:t>
@@ -861,11 +859,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="196696698"/>
-        <c:axId val="1445060318"/>
+        <c:axId val="1777701444"/>
+        <c:axId val="992471491"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196696698"/>
+        <c:axId val="1777701444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +876,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Number of Threads</a:t>
@@ -893,14 +891,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1445060318"/>
+        <c:crossAx val="992471491"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1445060318"/>
+        <c:axId val="992471491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,7 +929,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr b="0" sz="1200"/>
                 </a:pPr>
                 <a:r>
                   <a:t>Seconds</a:t>
@@ -953,17 +951,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr b="0" sz="1200"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196696698"/>
+        <c:crossAx val="1777701444"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
 </file>
@@ -996,20 +995,15 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="6600825" cy="4076700"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -1026,37 +1020,12 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8610600" cy="6276975"/>
@@ -1080,8 +1049,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8610600" cy="6276975"/>
@@ -1105,8 +1074,36 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
